--- a/Cockpit/get_ddlti_import.xlsx
+++ b/Cockpit/get_ddlti_import.xlsx
@@ -7,18 +7,19 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="ND" sheetId="3" r:id="rId1"/>
-    <sheet name="Regress" sheetId="2" r:id="rId2"/>
+    <sheet name="ED" sheetId="4" r:id="rId1"/>
+    <sheet name="ND" sheetId="3" r:id="rId2"/>
+    <sheet name="Regress" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Regress!$A$2:$I$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Regress!$A$2:$I$124</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="214">
   <si>
     <t>I_VKORG</t>
   </si>
@@ -582,18 +583,112 @@
   </si>
   <si>
     <t>19.08.19 13:00:00</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>05.11.2019</t>
+  </si>
+  <si>
+    <t>05.11.19 09:46:01</t>
+  </si>
+  <si>
+    <t>05.11.19 10:46:01</t>
+  </si>
+  <si>
+    <t>05.11.19 12:46:01</t>
+  </si>
+  <si>
+    <t>05.11.19 20:46:01</t>
+  </si>
+  <si>
+    <t>05.11.19 21:46:01</t>
+  </si>
+  <si>
+    <t>05.11.19 22:46:01</t>
+  </si>
+  <si>
+    <t>05.11.19 23:46:01</t>
+  </si>
+  <si>
+    <t>05.11.19 22:00:00</t>
+  </si>
+  <si>
+    <t>05.11.19 10:00:00</t>
+  </si>
+  <si>
+    <t>05.11.19 11:20:00</t>
+  </si>
+  <si>
+    <t>05.11.19 11:36:01</t>
+  </si>
+  <si>
+    <t>05.11.19 13:36:01</t>
+  </si>
+  <si>
+    <t>05.11.19 21:36:01</t>
+  </si>
+  <si>
+    <t>06.11.19 11:20:00</t>
+  </si>
+  <si>
+    <t>05.11.19 10:50:00</t>
+  </si>
+  <si>
+    <t>30.05.19 05:00:00</t>
+  </si>
+  <si>
+    <t>30.05.19 05:00:01</t>
+  </si>
+  <si>
+    <t>30.05.19 04:00:59</t>
+  </si>
+  <si>
+    <t>30.05.19 14:36:00</t>
+  </si>
+  <si>
+    <t>30.05.19 16:00:00</t>
+  </si>
+  <si>
+    <t>30.05.19 16:00:01</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
+    <t>05.11.19 10:36:01</t>
+  </si>
+  <si>
+    <t>06.11.19 10:20:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -626,10 +721,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -934,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,52 +1109,52 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
+      <c r="C3" s="3">
+        <v>100004360</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+        <v>189</v>
+      </c>
       <c r="I3" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
+      <c r="C4" s="3">
+        <v>100004360</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>143</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1067,20 +1164,20 @@
       <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
+      <c r="C5" s="3">
+        <v>100004360</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>144</v>
+        <v>207</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1090,20 +1187,20 @@
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
+      <c r="C6" s="3">
+        <v>100004360</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1113,20 +1210,20 @@
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
+      <c r="C7" s="3">
+        <v>100004360</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1136,20 +1233,20 @@
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
+      <c r="C8" s="3">
+        <v>100004360</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1159,20 +1256,20 @@
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
+      <c r="C9" s="3">
+        <v>100004360</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1180,45 +1277,47 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>188</v>
+      </c>
+      <c r="C10" s="3">
+        <v>100004360</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>188</v>
+      </c>
+      <c r="C11" s="3">
+        <v>100004360</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>143</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1226,51 +1325,45 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>188</v>
+      </c>
+      <c r="C12" s="3">
+        <v>100004360</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>188</v>
+      </c>
+      <c r="C13" s="3">
+        <v>100004360</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1278,28 +1371,22 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>188</v>
+      </c>
+      <c r="C14" s="3">
+        <v>100004360</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1307,28 +1394,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>188</v>
+      </c>
+      <c r="C15" s="3">
+        <v>100004360</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1336,57 +1417,47 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>188</v>
+      </c>
+      <c r="C16" s="3">
+        <v>100004360</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>147</v>
+        <v>210</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>188</v>
+      </c>
+      <c r="C17" s="4">
+        <v>100004360</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>143</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1394,28 +1465,24 @@
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>188</v>
+      </c>
+      <c r="C18" s="4">
+        <v>100004360</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>143</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18"/>
       <c r="I18" s="1" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1423,28 +1490,24 @@
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>11</v>
+        <v>188</v>
+      </c>
+      <c r="C19" s="4">
+        <v>100004360</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>143</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19"/>
       <c r="I19" s="1" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1452,28 +1515,24 @@
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>188</v>
+      </c>
+      <c r="C20" s="4">
+        <v>100004360</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>143</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20"/>
       <c r="I20" s="1" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1481,28 +1540,24 @@
         <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>188</v>
+      </c>
+      <c r="C21" s="4">
+        <v>100004360</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>143</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21"/>
       <c r="I21" s="1" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1510,57 +1565,49 @@
         <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>11</v>
+        <v>188</v>
+      </c>
+      <c r="C22" s="4">
+        <v>100004360</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>143</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22"/>
       <c r="I22" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>188</v>
+      </c>
+      <c r="C23" s="4">
+        <v>100004360</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>143</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23"/>
       <c r="I23" s="1" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1568,28 +1615,24 @@
         <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>11</v>
+        <v>188</v>
+      </c>
+      <c r="C24" s="4">
+        <v>100004360</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>143</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24"/>
       <c r="I24" s="1" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1597,57 +1640,49 @@
         <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>11</v>
+        <v>188</v>
+      </c>
+      <c r="C25" s="4">
+        <v>100004360</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>143</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25"/>
       <c r="I25" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>11</v>
+        <v>188</v>
+      </c>
+      <c r="C26" s="3">
+        <v>100004360</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>142</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>143</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1655,28 +1690,24 @@
         <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>11</v>
+        <v>188</v>
+      </c>
+      <c r="C27" s="3">
+        <v>100004360</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>142</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>143</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27"/>
       <c r="I27" s="1" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1684,28 +1715,24 @@
         <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>11</v>
+        <v>188</v>
+      </c>
+      <c r="C28" s="3">
+        <v>100004360</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>142</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>143</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28"/>
       <c r="I28" s="1" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1713,28 +1740,24 @@
         <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>11</v>
+        <v>188</v>
+      </c>
+      <c r="C29" s="3">
+        <v>100004360</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>142</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>143</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G29"/>
+      <c r="H29"/>
       <c r="I29" s="1" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1742,28 +1765,24 @@
         <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>11</v>
+        <v>188</v>
+      </c>
+      <c r="C30" s="3">
+        <v>100004360</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>142</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>143</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G30"/>
+      <c r="H30"/>
       <c r="I30" s="1" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1771,28 +1790,24 @@
         <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>11</v>
+        <v>188</v>
+      </c>
+      <c r="C31" s="3">
+        <v>100004360</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>142</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>143</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31"/>
       <c r="I31" s="1" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1800,28 +1815,24 @@
         <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>11</v>
+        <v>188</v>
+      </c>
+      <c r="C32" s="3">
+        <v>100004360</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>142</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>143</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G32"/>
+      <c r="H32"/>
       <c r="I32" s="1" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1829,28 +1840,24 @@
         <v>9</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>11</v>
+        <v>188</v>
+      </c>
+      <c r="C33" s="3">
+        <v>100004360</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>142</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>157</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G33"/>
+      <c r="H33"/>
       <c r="I33" s="1" t="s">
-        <v>158</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1858,966 +1865,24 @@
         <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>11</v>
+        <v>188</v>
+      </c>
+      <c r="C34" s="3">
+        <v>100004360</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>142</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>157</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="G34"/>
+      <c r="H34"/>
       <c r="I34" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2827,10 +1892,1904 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I68"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView topLeftCell="C85" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2905,7 +3864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2925,7 +3884,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2945,7 +3904,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2965,7 +3924,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -3065,7 +4024,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3091,7 +4050,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -3117,7 +4076,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -3143,7 +4102,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -3169,7 +4128,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -3195,7 +4154,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -3221,7 +4180,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -3247,7 +4206,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -3273,7 +4232,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -3299,7 +4258,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -3319,7 +4278,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
@@ -3339,7 +4298,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -3359,7 +4318,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
@@ -3459,7 +4418,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
@@ -3485,7 +4444,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -3511,7 +4470,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
@@ -3537,7 +4496,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
@@ -3563,7 +4522,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
@@ -3589,7 +4548,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
@@ -3615,7 +4574,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
@@ -3641,7 +4600,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
@@ -3661,7 +4620,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
@@ -3681,7 +4640,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -3701,7 +4660,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -3801,7 +4760,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
@@ -3827,7 +4786,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>9</v>
       </c>
@@ -3853,7 +4812,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
@@ -3879,7 +4838,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -3905,7 +4864,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
@@ -3931,7 +4890,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>9</v>
       </c>
@@ -3957,7 +4916,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>9</v>
       </c>
@@ -3983,7 +4942,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>9</v>
       </c>
@@ -4009,7 +4968,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>9</v>
       </c>
@@ -4035,7 +4994,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>9</v>
       </c>
@@ -4061,7 +5020,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>9</v>
       </c>
@@ -4087,7 +5046,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>9</v>
       </c>
@@ -4113,7 +5072,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>9</v>
       </c>
@@ -4133,7 +5092,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>9</v>
       </c>
@@ -4153,7 +5112,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>9</v>
       </c>
@@ -4173,7 +5132,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>9</v>
       </c>
@@ -4273,7 +5232,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>9</v>
       </c>
@@ -4299,7 +5258,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>9</v>
       </c>
@@ -4325,7 +5284,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>9</v>
       </c>
@@ -4345,7 +5304,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>9</v>
       </c>
@@ -4365,7 +5324,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>9</v>
       </c>
@@ -4385,7 +5344,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>9</v>
       </c>
@@ -4405,7 +5364,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -4425,7 +5384,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>9</v>
       </c>
@@ -4445,7 +5404,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>9</v>
       </c>
@@ -4605,7 +5564,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>9</v>
       </c>
@@ -4631,7 +5590,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>9</v>
       </c>
@@ -4657,7 +5616,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>9</v>
       </c>
@@ -4683,7 +5642,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>9</v>
       </c>
@@ -4709,7 +5668,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>9</v>
       </c>
@@ -4735,7 +5694,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>9</v>
       </c>
@@ -4761,7 +5720,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>9</v>
       </c>
@@ -4781,7 +5740,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>9</v>
       </c>
@@ -4801,7 +5760,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>9</v>
       </c>
@@ -4821,7 +5780,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>9</v>
       </c>
@@ -4921,7 +5880,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>9</v>
       </c>
@@ -4947,7 +5906,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>9</v>
       </c>
@@ -4973,7 +5932,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
@@ -4999,7 +5958,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>9</v>
       </c>
@@ -5025,7 +5984,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>9</v>
       </c>
@@ -5045,7 +6004,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>9</v>
       </c>
@@ -5065,7 +6024,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>9</v>
       </c>
@@ -5085,7 +6044,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>9</v>
       </c>
@@ -5105,7 +6064,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>9</v>
       </c>
@@ -5125,7 +6084,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>9</v>
       </c>
@@ -5145,7 +6104,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>9</v>
       </c>
@@ -5165,7 +6124,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>9</v>
       </c>
@@ -5345,7 +6304,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>9</v>
       </c>
@@ -5371,7 +6330,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>9</v>
       </c>
@@ -5397,7 +6356,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>9</v>
       </c>
@@ -5423,7 +6382,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>9</v>
       </c>
@@ -5449,7 +6408,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>9</v>
       </c>
@@ -5475,7 +6434,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>9</v>
       </c>
@@ -5501,7 +6460,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>9</v>
       </c>
@@ -5527,7 +6486,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>9</v>
       </c>
@@ -5553,7 +6512,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>9</v>
       </c>
@@ -5579,7 +6538,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>9</v>
       </c>
@@ -5605,7 +6564,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>9</v>
       </c>
@@ -5631,7 +6590,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>9</v>
       </c>
@@ -5658,7 +6617,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I124"/>
+  <autoFilter ref="A2:I124">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="IN"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>